--- a/uploads/excel/expense_import_template_analyzed.xlsx
+++ b/uploads/excel/expense_import_template_analyzed.xlsx
@@ -833,7 +833,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Generated on: 2025-04-12 17:55</t>
+          <t>Generated on: 2025-04-12 18:48</t>
         </is>
       </c>
     </row>

--- a/uploads/excel/expense_import_template_analyzed.xlsx
+++ b/uploads/excel/expense_import_template_analyzed.xlsx
@@ -833,7 +833,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Generated on: 2025-04-12 18:48</t>
+          <t>Generated on: 2025-04-12 18:54</t>
         </is>
       </c>
     </row>

--- a/uploads/excel/expense_import_template_analyzed.xlsx
+++ b/uploads/excel/expense_import_template_analyzed.xlsx
@@ -833,7 +833,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Generated on: 2025-04-12 18:54</t>
+          <t>Generated on: 2025-04-12 18:59</t>
         </is>
       </c>
     </row>

--- a/uploads/excel/expense_import_template_analyzed.xlsx
+++ b/uploads/excel/expense_import_template_analyzed.xlsx
@@ -833,7 +833,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Generated on: 2025-04-12 18:59</t>
+          <t>Generated on: 2025-04-12 19:09</t>
         </is>
       </c>
     </row>

--- a/uploads/excel/expense_import_template_analyzed.xlsx
+++ b/uploads/excel/expense_import_template_analyzed.xlsx
@@ -833,7 +833,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Generated on: 2025-04-12 19:09</t>
+          <t>Generated on: 2025-04-13 15:31</t>
         </is>
       </c>
     </row>
